--- a/Excel Data/PrematureEncashmentForAllProducts.xlsx
+++ b/Excel Data/PrematureEncashmentForAllProducts.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
